--- a/software_testing/part_b/failed_list.xlsx
+++ b/software_testing/part_b/failed_list.xlsx
@@ -374,10 +374,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
